--- a/biology/Mycologie/Chorioactis/Chorioactis.xlsx
+++ b/biology/Mycologie/Chorioactis/Chorioactis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chorioactis est un genre du règne des Fungi. Sa seule espèce est le Chorioactis geaster. Au Japon, il est connu comme le Kirinomitake (キリノミタケ?).
 Sa distribution est atypique car elle est disjointe entre le Texas et le Japon.
